--- a/Templates/SphereSDDR_comparison.xlsx
+++ b/Templates/SphereSDDR_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7EC91-D14F-45C4-9117-A7AB832A3D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFAB5C-F098-47CC-AE3A-62F2E48C7ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6FA4B5BB-1DC3-4572-83AD-EC72E3E99E5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6FA4B5BB-1DC3-4572-83AD-EC72E3E99E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>LIBRARY:</t>
   </si>
@@ -109,13 +109,43 @@
   </si>
   <si>
     <t>SPHERE SDDR ABSOLUTE COMPARISON RECAP</t>
+  </si>
+  <si>
+    <t>Photon Flux at the External surface</t>
+  </si>
+  <si>
+    <t>Shut Down Dose Rate</t>
+  </si>
+  <si>
+    <t>Photon Heating</t>
+  </si>
+  <si>
+    <t>Neutron Flux at the External surface</t>
+  </si>
+  <si>
+    <t>1e-6 MeV</t>
+  </si>
+  <si>
+    <t>0.1 MeV</t>
+  </si>
+  <si>
+    <t>1 MeV</t>
+  </si>
+  <si>
+    <t>10 MeV</t>
+  </si>
+  <si>
+    <t>20 MeV</t>
+  </si>
+  <si>
+    <t>Neutron Flux at the External surface [n/cm^2/#s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +188,6 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,32 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -379,66 +376,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -625,7 +562,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="dotted">
@@ -634,6 +582,17 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -641,11 +600,11 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -653,44 +612,90 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -698,9 +703,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -709,39 +712,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,22 +747,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -780,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -789,16 +786,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -810,23 +807,143 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,121 +952,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -957,7 +1026,7 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -966,12 +1035,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1021,6 +1087,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1354,410 +1430,458 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:V7"/>
+      <selection pane="bottomLeft" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="8.88671875" style="21"/>
-    <col min="3" max="3" width="16" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="30"/>
-    <col min="6" max="9" width="8.88671875" style="31"/>
-    <col min="10" max="10" width="8.88671875" style="32"/>
-    <col min="11" max="11" width="8.88671875" style="30"/>
-    <col min="12" max="15" width="8.88671875" style="31"/>
-    <col min="16" max="16" width="8.88671875" style="32"/>
-    <col min="17" max="17" width="8.88671875" style="30"/>
-    <col min="18" max="21" width="8.88671875" style="31"/>
-    <col min="22" max="22" width="8.88671875" style="32"/>
-    <col min="23" max="23" width="8.88671875" style="13"/>
-    <col min="24" max="24" width="8.109375" style="13" customWidth="1"/>
-    <col min="25" max="25" width="14.77734375" style="13" customWidth="1"/>
-    <col min="26" max="28" width="8.88671875" style="13"/>
-    <col min="29" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="8.88671875" style="19"/>
+    <col min="3" max="3" width="16" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="28"/>
+    <col min="6" max="9" width="8.88671875" style="29"/>
+    <col min="10" max="10" width="8.88671875" style="30"/>
+    <col min="11" max="11" width="8.88671875" style="28"/>
+    <col min="12" max="15" width="8.88671875" style="29"/>
+    <col min="16" max="16" width="8.88671875" style="30"/>
+    <col min="17" max="17" width="8.88671875" style="28"/>
+    <col min="18" max="21" width="8.88671875" style="29"/>
+    <col min="22" max="22" width="8.88671875" style="30"/>
+    <col min="23" max="23" width="9.77734375" style="40" customWidth="1"/>
+    <col min="24" max="26" width="9.77734375" style="41" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" style="42" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="13" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="76" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="12"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="10"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="12"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="10"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="41" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="42"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
     </row>
-    <row r="4" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="2" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="67" t="s">
         <v>18</v>
       </c>
+      <c r="AA4" s="68"/>
     </row>
-    <row r="5" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="2" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="69" t="s">
         <v>19</v>
       </c>
+      <c r="AA5" s="70"/>
     </row>
-    <row r="6" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="2" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="69" t="s">
         <v>20</v>
       </c>
+      <c r="AA6" s="70"/>
     </row>
-    <row r="7" spans="1:25" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="62"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="3" t="s">
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="53" t="s">
         <v>21</v>
       </c>
+      <c r="AA7" s="54"/>
     </row>
-    <row r="8" spans="1:25" s="13" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="63" t="s">
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="4"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
     </row>
-    <row r="9" spans="1:25" s="13" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="4"/>
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="93"/>
     </row>
-    <row r="10" spans="1:25" s="13" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:27" s="11" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="29"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="X3:Y3"/>
+  <mergeCells count="15">
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="E8:AA8"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:V7"/>
     <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:V8"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="E1:G2"/>
     <mergeCell ref="H1:N2"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="B3:X7"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E1 A2:D2 V1:XFD2 A3:W7 Z3:XFD7 A8:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:E1 A2:D2 A4:A7 V1:XFD2 A9:XFD1048576 A8:E8 AB3:XFD8 A3:B3">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:Y7">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="Y4:Z7 Y3">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"Identical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:V1048576">
+  <conditionalFormatting sqref="B11:AA1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"identical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:AA1048576">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>-0.2</formula>
     </cfRule>
@@ -1785,11 +1909,6 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:V1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"identical"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1802,377 +1921,443 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:V7"/>
+      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="8.88671875" style="21"/>
-    <col min="3" max="3" width="16" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="24"/>
-    <col min="6" max="9" width="8.88671875" style="25"/>
-    <col min="10" max="10" width="8.88671875" style="26"/>
-    <col min="11" max="11" width="8.88671875" style="24"/>
-    <col min="12" max="15" width="8.88671875" style="25"/>
-    <col min="16" max="16" width="8.88671875" style="26"/>
-    <col min="17" max="17" width="8.88671875" style="24"/>
-    <col min="18" max="21" width="8.88671875" style="25"/>
-    <col min="22" max="22" width="8.88671875" style="26"/>
-    <col min="23" max="28" width="8.88671875" style="13"/>
-    <col min="29" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="8.88671875" style="19"/>
+    <col min="3" max="3" width="16" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="22"/>
+    <col min="6" max="9" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="8.88671875" style="24"/>
+    <col min="11" max="11" width="8.88671875" style="22"/>
+    <col min="12" max="15" width="8.88671875" style="23"/>
+    <col min="16" max="16" width="8.88671875" style="24"/>
+    <col min="17" max="17" width="8.88671875" style="22"/>
+    <col min="18" max="21" width="8.88671875" style="23"/>
+    <col min="22" max="22" width="8.88671875" style="24"/>
+    <col min="23" max="23" width="9.88671875" style="50" customWidth="1"/>
+    <col min="24" max="26" width="9.88671875" style="51" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" style="52" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="11"/>
+    <col min="29" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="70">
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="83">
         <f>Comparison!E1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="78" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="1"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
     </row>
-    <row r="2" spans="1:23" s="13" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="11" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="1"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
     </row>
-    <row r="3" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="1"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="1"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60"/>
     </row>
-    <row r="5" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="1"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="60"/>
     </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="1"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="60"/>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="62"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
     </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="63" t="s">
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="4"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
     </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="63" t="s">
+    <row r="9" spans="1:27" s="11" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="43" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="43" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="4"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="96"/>
     </row>
-    <row r="10" spans="1:23" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:27" s="11" customFormat="1" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="E8:AA8"/>
+    <mergeCell ref="B3:AA7"/>
     <mergeCell ref="E1:G2"/>
     <mergeCell ref="H1:N2"/>
     <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:V7"/>
     <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:V8"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="Q9:V9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:XFD1048576 A1:E1 W1:XFD2 A2:D2">
+  <conditionalFormatting sqref="A4:A7 A1:E1 W1:XFD2 A2:D2 A11:XFD1048576 A9:V10 A8:E8 A3:B3 AB3:XFD10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9:AA10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
